--- a/products/health-care/checkin/research/staff-facing/Staff Discovery Participant List 5.24.21.xlsx
+++ b/products/health-care/checkin/research/staff-facing/Staff Discovery Participant List 5.24.21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliaelizabethsnyder/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A536F68F-78C9-0E42-A086-A5DF338D52A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEBD958-CE38-8C4C-90B0-881383798356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23920" yWindow="480" windowWidth="23900" windowHeight="21140" xr2:uid="{71796436-261A-4E25-BE4B-F301D0D31F02}"/>
+    <workbookView xWindow="-26300" yWindow="460" windowWidth="25560" windowHeight="19900" xr2:uid="{71796436-261A-4E25-BE4B-F301D0D31F02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="216">
   <si>
     <t>Name</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t xml:space="preserve">Julio Ramirez </t>
-  </si>
-  <si>
-    <t>Main POC for this effort at Amarillo</t>
   </si>
   <si>
     <t>Tommy J. Bowerman</t>
@@ -569,12 +566,6 @@
     <t>John.Guide@va.gov</t>
   </si>
   <si>
-    <t>Sent</t>
-  </si>
-  <si>
-    <t>Drafted</t>
-  </si>
-  <si>
     <t>Pod</t>
   </si>
   <si>
@@ -705,6 +696,15 @@
   </si>
   <si>
     <t>Lab POC (Lab supervisor)</t>
+  </si>
+  <si>
+    <t>Sent 5/28</t>
+  </si>
+  <si>
+    <t>Sent 5/27</t>
+  </si>
+  <si>
+    <t>Main POC for this effort at Amarillo (MHV Coordinator)</t>
   </si>
 </sst>
 </file>
@@ -774,7 +774,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -853,6 +853,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -921,7 +927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1059,6 +1065,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="14" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1386,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AB0872-A1CA-4EFB-8DC3-E0CDDE6EECA9}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1410,19 +1419,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I1" s="4"/>
     </row>
@@ -1442,7 +1451,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="5"/>
     </row>
@@ -1462,36 +1471,36 @@
         <v>5</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="41">
@@ -1502,99 +1511,101 @@
         <v>5</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="C7" s="29"/>
-      <c r="D7" s="37"/>
+      <c r="D7" s="37" t="s">
+        <v>171</v>
+      </c>
       <c r="E7" s="29"/>
       <c r="F7" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="37"/>
       <c r="E8" s="29"/>
       <c r="F8" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="37"/>
       <c r="E9" s="29"/>
       <c r="F9" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="37"/>
       <c r="E10" s="29"/>
       <c r="F10" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -1603,16 +1614,16 @@
         <v>13</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="37"/>
       <c r="E11" s="29"/>
       <c r="F11" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -1621,16 +1632,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="37"/>
       <c r="E12" s="29"/>
       <c r="F12" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -1639,56 +1650,56 @@
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D13" s="42">
         <v>4</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="37"/>
       <c r="E14" s="29"/>
       <c r="F14" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="37"/>
       <c r="E15" s="29"/>
       <c r="F15" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -1697,16 +1708,16 @@
         <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="37"/>
       <c r="E16" s="29"/>
       <c r="F16" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -1715,20 +1726,20 @@
         <v>11</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D17" s="43">
         <v>4</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -1737,23 +1748,23 @@
         <v>14</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D18" s="43">
         <v>4</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -1762,23 +1773,23 @@
         <v>12</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D19" s="42">
         <v>4</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I19" s="5"/>
     </row>
@@ -1787,85 +1798,87 @@
         <v>15</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="29"/>
-      <c r="D20" s="37"/>
+      <c r="D20" s="56">
+        <v>12</v>
+      </c>
       <c r="E20" s="29"/>
       <c r="F20" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D21" s="44">
         <v>5</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D22" s="44">
         <v>5</v>
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D23" s="44">
         <v>5</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I23" s="5"/>
     </row>
@@ -1874,7 +1887,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="45">
@@ -1882,35 +1895,35 @@
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D25" s="44">
         <v>5</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I25" s="5"/>
     </row>
@@ -1919,7 +1932,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="45">
@@ -1927,10 +1940,10 @@
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I26" s="5"/>
     </row>
@@ -1939,7 +1952,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="45">
@@ -1947,201 +1960,207 @@
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="29"/>
-      <c r="D28" s="37"/>
+      <c r="D28" s="56">
+        <v>12</v>
+      </c>
       <c r="E28" s="29"/>
       <c r="F28" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="29"/>
-      <c r="D29" s="37"/>
+      <c r="D29" s="37" t="s">
+        <v>171</v>
+      </c>
       <c r="E29" s="29"/>
       <c r="F29" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D30" s="46">
         <v>2</v>
       </c>
-      <c r="E30" s="29" t="s">
-        <v>171</v>
+      <c r="E30" s="31" t="s">
+        <v>213</v>
       </c>
       <c r="F30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D31" s="46">
         <v>2</v>
       </c>
-      <c r="E31" s="29" t="s">
-        <v>171</v>
+      <c r="E31" s="31" t="s">
+        <v>213</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D32" s="47">
         <v>1</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D33" s="47">
         <v>1</v>
       </c>
-      <c r="E33" s="29" t="s">
-        <v>170</v>
+      <c r="E33" s="31" t="s">
+        <v>214</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D34" s="46">
         <v>2</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="29"/>
-      <c r="D35" s="37"/>
+      <c r="D35" s="37" t="s">
+        <v>171</v>
+      </c>
       <c r="E35" s="29"/>
       <c r="F35" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="48">
@@ -2149,23 +2168,23 @@
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="53">
@@ -2173,23 +2192,23 @@
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="53">
@@ -2197,23 +2216,23 @@
       </c>
       <c r="E38" s="29"/>
       <c r="F38" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="53">
@@ -2221,23 +2240,23 @@
       </c>
       <c r="E39" s="29"/>
       <c r="F39" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G39" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="48">
@@ -2245,23 +2264,23 @@
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="48">
@@ -2269,22 +2288,22 @@
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G41" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="48">
@@ -2292,491 +2311,491 @@
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>113</v>
-      </c>
       <c r="C43" s="29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D43" s="49">
         <v>7</v>
       </c>
       <c r="E43" s="29"/>
       <c r="F43" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>115</v>
-      </c>
       <c r="C44" s="29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D44" s="49">
         <v>7</v>
       </c>
       <c r="E44" s="29"/>
       <c r="F44" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>118</v>
-      </c>
       <c r="C45" s="29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D45" s="49">
         <v>7</v>
       </c>
       <c r="E45" s="29"/>
       <c r="F45" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D46" s="50">
         <v>7</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="C47" s="29"/>
       <c r="D47" s="37"/>
       <c r="E47" s="29"/>
       <c r="F47" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D48" s="51">
         <v>8</v>
       </c>
       <c r="E48" s="33"/>
       <c r="F48" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G48" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D49" s="51">
         <v>8</v>
       </c>
       <c r="E49" s="33"/>
       <c r="F49" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G49" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="37"/>
       <c r="E50" s="33"/>
       <c r="F50" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G50" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="D51" s="52">
-        <v>9</v>
+        <v>173</v>
+      </c>
+      <c r="D51" s="51">
+        <v>8</v>
       </c>
       <c r="E51" s="33"/>
       <c r="F51" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G51" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D52" s="52">
         <v>9</v>
       </c>
       <c r="E52" s="33"/>
       <c r="F52" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G52" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="D53" s="51">
-        <v>8</v>
+        <v>175</v>
+      </c>
+      <c r="D53" s="52">
+        <v>9</v>
       </c>
       <c r="E53" s="33"/>
       <c r="F53" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G53" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D54" s="52">
         <v>9</v>
       </c>
       <c r="E54" s="33"/>
       <c r="F54" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G54" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D55" s="51">
         <v>8</v>
       </c>
       <c r="E55" s="33"/>
       <c r="F55" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G55" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="D56" s="52">
-        <v>9</v>
+        <v>173</v>
+      </c>
+      <c r="D56" s="51">
+        <v>8</v>
       </c>
       <c r="E56" s="33"/>
       <c r="F56" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G56" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C57" s="33"/>
       <c r="D57" s="37"/>
       <c r="E57" s="33"/>
       <c r="F57" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G57" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="37"/>
       <c r="E58" s="33"/>
       <c r="F58" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G58" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C59" s="33"/>
       <c r="D59" s="37"/>
       <c r="E59" s="33"/>
       <c r="F59" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G59" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C60" s="33"/>
       <c r="D60" s="37"/>
       <c r="E60" s="33"/>
       <c r="F60" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G60" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C61" s="33"/>
       <c r="D61" s="37"/>
       <c r="E61" s="33"/>
       <c r="F61" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G61" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C62" s="33"/>
       <c r="E62" s="33"/>
       <c r="F62" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G62" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="33"/>
       <c r="D63" s="37"/>
       <c r="E63" s="33"/>
       <c r="F63" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G63" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H63" s="21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B64" s="26" t="s">
-        <v>156</v>
-      </c>
       <c r="C64" s="33" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D64" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E64" s="33"/>
       <c r="F64" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
